--- a/va_facility_data_2025-02-20/John J. Cochran Veterans Hospital - Facility Data.xlsx"; filename*=UTF-8''John%20J.%20Cochran%20Veterans%20Hospital%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/John J. Cochran Veterans Hospital - Facility Data.xlsx"; filename*=UTF-8''John%20J.%20Cochran%20Veterans%20Hospital%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R13d7951377d14426a690ca7bb188e533"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R22093a6381f04c4eb977d1ce778217b7"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R5b82821721944779880c80960c9a7291"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R18e9bb398c7d492bbf689d230912d83b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R8dd9f992594b4f9296ff47ab1ee9cdc8"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R948cc840df9849baa09c3ddd3decea60"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rafec35a5e8a54cd9bd69165b00ecbc54"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R13f3b3505a864e7290027259a038c4a1"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R05ad2e7182b64dc6a355daa9cbd3edc0"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Re40187e535b34c0b90011e6a0b868a06"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R25e8e6dc70c342cd8689093a4233c1ef"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rc712d61e283c4e9ca38f955061848a4d"/>
   </x:sheets>
 </x:workbook>
 </file>
